--- a/CURSOS.CARRERAS.DATA.SCIENCE-BI-ANALYTICS.GRATIS-28may21.xlsx
+++ b/CURSOS.CARRERAS.DATA.SCIENCE-BI-ANALYTICS.GRATIS-28may21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC68BD2-838C-45B2-9950-49F3AFA0BDD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB26A6-A922-4836-8E43-BB7F4DE5D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>INICIO – BASICO</t>
   </si>
@@ -256,6 +256,10 @@
   <si>
     <t>Laboratorio de Datos – 1er Cuatrimestre 2021
 http://materias.df.uba.ar/lda2021c1/171-2/</t>
+  </si>
+  <si>
+    <t>Ciencia de datos
+https://cursosacademiaba.buenosaires.gob.ar/</t>
   </si>
 </sst>
 </file>
@@ -983,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G47" sqref="G46:G47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1103,156 +1107,158 @@
       <c r="J7" s="2"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:11" ht="28">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:11" ht="42">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="42">
+    <row r="11" spans="1:11">
       <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="42">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="42">
+    <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="42">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -1261,15 +1267,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="9"/>
     </row>
@@ -1278,11 +1280,15 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="9"/>
     </row>
@@ -1291,9 +1297,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1306,7 +1310,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1319,9 +1325,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1334,7 +1338,9 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1347,9 +1353,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1362,7 +1366,9 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1375,9 +1381,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1390,7 +1394,9 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1403,9 +1409,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1414,94 +1418,96 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="42">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>33</v>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="42">
       <c r="A28" s="8"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="42">
+    <row r="29" spans="1:11">
       <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="42">
       <c r="A30" s="8"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
@@ -1511,14 +1517,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
@@ -1528,10 +1530,14 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
@@ -1541,14 +1547,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
@@ -1558,10 +1560,14 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
@@ -1571,9 +1577,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1586,7 +1590,9 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1599,9 +1605,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1610,47 +1614,45 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="2"/>
+      <c r="A39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="9"/>
@@ -1660,9 +1662,13 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1673,67 +1679,80 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-    </row>
-    <row r="43" spans="1:11" ht="28">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" ht="14.5" thickBot="1">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:11" ht="28">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" thickBot="1">
+      <c r="A45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" xr:uid="{B41C2BD1-0C1E-4F76-8357-33A72EA90421}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{4E979817-B743-453F-8697-DBC9B44D7568}"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{B41C2BD1-0C1E-4F76-8357-33A72EA90421}"/>
+    <hyperlink ref="H14" r:id="rId2" xr:uid="{4E979817-B743-453F-8697-DBC9B44D7568}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <headerFooter>
